--- a/src/main/resources/excel/Haushaltsbuch_2022.xlsx
+++ b/src/main/resources/excel/Haushaltsbuch_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larad\Dokumente\Programme\JetBrains\Projekte\HaushaltsbuchFX\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C616DC-3959-40ED-A150-53FD28AA9760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BD5AAA-92AC-401E-87D6-7B4E51E8487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26895" yWindow="1830" windowWidth="21600" windowHeight="11295" xr2:uid="{6242E93C-EC54-432C-80A4-85FF6AE47B01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{6242E93C-EC54-432C-80A4-85FF6AE47B01}"/>
   </bookViews>
   <sheets>
     <sheet name="KW1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
   <si>
     <t>datum</t>
   </si>
@@ -84,6 +84,36 @@
   </si>
   <si>
     <t>Einkaufen</t>
+  </si>
+  <si>
+    <t>Streaming</t>
+  </si>
+  <si>
+    <t>Sky Ticket</t>
+  </si>
+  <si>
+    <t>Rossmann</t>
+  </si>
+  <si>
+    <t>Drogerie</t>
+  </si>
+  <si>
+    <t>Flaschenpost</t>
+  </si>
+  <si>
+    <t>Gehalt</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Unterhosen</t>
+  </si>
+  <si>
+    <t>Kleidung</t>
+  </si>
+  <si>
+    <t>60° + 30° (d)</t>
   </si>
 </sst>
 </file>
@@ -442,14 +472,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCFF063-1330-4E9E-BF5C-18905E1153C5}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -477,7 +507,7 @@
         <v>44564</v>
       </c>
       <c r="B2" s="1">
-        <v>6.5</v>
+        <v>-6.5</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -494,7 +524,7 @@
         <v>44565</v>
       </c>
       <c r="B3" s="1">
-        <v>3.99</v>
+        <v>-3.99</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -511,7 +541,7 @@
         <v>44567</v>
       </c>
       <c r="B4" s="1">
-        <v>6.5</v>
+        <v>-6.5</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -528,7 +558,7 @@
         <v>44568</v>
       </c>
       <c r="B5" s="1">
-        <v>79.61</v>
+        <v>-79.61</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -586,18 +616,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8B1437-5F08-49C8-9115-AA5C75A99B48}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -618,6 +648,91 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44573</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-4.99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44575</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-80.34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44575</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44577</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-7.92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44577</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -625,18 +740,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0DAA48-9B2C-4EA7-87EC-85D07AE988D1}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -657,6 +772,40 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44582</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-74.47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44582</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -664,18 +813,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE192715-10BA-4811-B11B-CD212465E4FC}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -696,6 +845,88 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44586</v>
+      </c>
+      <c r="B2" s="1">
+        <v>230.24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44586</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-46.68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-45.98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44589</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-74.64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44589</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -705,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB979DC-A3C4-40EC-9DD4-548952A876BF}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/excel/Haushaltsbuch_2022.xlsx
+++ b/src/main/resources/excel/Haushaltsbuch_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larad\Dokumente\Programme\JetBrains\Projekte\HaushaltsbuchFX\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BD5AAA-92AC-401E-87D6-7B4E51E8487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381DB63A-AF30-4915-BE06-5E8324D30912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{6242E93C-EC54-432C-80A4-85FF6AE47B01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{6242E93C-EC54-432C-80A4-85FF6AE47B01}"/>
   </bookViews>
   <sheets>
     <sheet name="KW1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="KW6" sheetId="6" r:id="rId6"/>
     <sheet name="KW7" sheetId="7" r:id="rId7"/>
     <sheet name="KW8" sheetId="8" r:id="rId8"/>
-    <sheet name="KW9" sheetId="9" r:id="rId9"/>
-    <sheet name="KW10" sheetId="10" r:id="rId10"/>
+    <sheet name="KW9" sheetId="11" r:id="rId9"/>
+    <sheet name="KW10" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="48">
   <si>
     <t>datum</t>
   </si>
@@ -114,6 +114,81 @@
   </si>
   <si>
     <t>60° + 30° (d)</t>
+  </si>
+  <si>
+    <t>30° (h)  + 60° (d)</t>
+  </si>
+  <si>
+    <t>Acer Nitro VG220</t>
+  </si>
+  <si>
+    <t>von Mama</t>
+  </si>
+  <si>
+    <t>Papa (Monitorhalterung)</t>
+  </si>
+  <si>
+    <t>Fabletics</t>
+  </si>
+  <si>
+    <t>Umbuchung</t>
+  </si>
+  <si>
+    <t>30° (d)</t>
+  </si>
+  <si>
+    <t>Bäcker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">von Robin </t>
+  </si>
+  <si>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>Filme</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Lisann Wii</t>
+  </si>
+  <si>
+    <t>Angelika</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>von Robin</t>
+  </si>
+  <si>
+    <t>Amazon Prime</t>
+  </si>
+  <si>
+    <t>60° (d) + 30° (h)</t>
+  </si>
+  <si>
+    <t>Alex (Restaurant)</t>
+  </si>
+  <si>
+    <t>Essen gehen</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Mayersche</t>
+  </si>
+  <si>
+    <t>Bücher</t>
+  </si>
+  <si>
+    <t>Pille</t>
+  </si>
+  <si>
+    <t>Eis essen</t>
   </si>
 </sst>
 </file>
@@ -152,15 +227,259 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -473,7 +792,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,24 +890,40 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61F83B4-1150-4619-AA6C-2A2A2D97BDA1}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F44F1FA-1C9B-4AEA-A502-721BB6437043}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -609,7 +944,63 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44629</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44629</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-19.27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44629</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -619,7 +1010,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +1057,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>44575</v>
       </c>
       <c r="B3" s="1">
@@ -683,7 +1074,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>44575</v>
       </c>
       <c r="B4" s="1">
@@ -700,7 +1091,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>44577</v>
       </c>
       <c r="B5" s="1">
@@ -717,7 +1108,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>44577</v>
       </c>
       <c r="B6" s="1">
@@ -734,6 +1125,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -743,7 +1142,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +1172,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>44582</v>
       </c>
       <c r="B2" s="1">
@@ -790,7 +1189,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>44582</v>
       </c>
       <c r="B3" s="1">
@@ -807,6 +1206,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -816,7 +1223,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +1253,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>44586</v>
       </c>
       <c r="B2" s="1">
@@ -863,7 +1270,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>44586</v>
       </c>
       <c r="B3" s="1">
@@ -894,7 +1301,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>44589</v>
       </c>
       <c r="B5" s="1">
@@ -911,7 +1318,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>44589</v>
       </c>
       <c r="B6" s="1">
@@ -928,22 +1335,450 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB979DC-A3C4-40EC-9DD4-548952A876BF}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-133.38999999999999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-44.36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44597</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44597</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44597</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B90DA2-22ED-46FB-A205-28453F2CDA88}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44600</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44600</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-42.49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-49.95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B5" s="1">
+        <v>49.95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-67.650000000000006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE3E607-4B5A-4094-82B7-9920CA5F73E9}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-11.75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44610</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-8.11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44610</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8.11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44610</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-46.75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44611</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44611</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-3.98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE4BEAF-7FEF-4093-AB6F-34A4B464AA11}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -966,25 +1801,174 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-16.18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-2.7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44617</v>
+      </c>
+      <c r="B4" s="1">
+        <v>661.09</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44617</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-64.52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44618</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-67.900000000000006</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44618</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44618</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-8.91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44618</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-2.1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44618</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B90DA2-22ED-46FB-A205-28453F2CDA88}">
-  <dimension ref="A1:E1"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0165A27-6BD3-465B-BA3F-BB34A4C28728}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1005,124 +1989,131 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-95.94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44655</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44655</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-55.32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44625</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44625</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-47.89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE3E607-4B5A-4094-82B7-9920CA5F73E9}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE4BEAF-7FEF-4093-AB6F-34A4B464AA11}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F5A0C7-475A-4B39-9DFB-81E1643734C8}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/excel/Haushaltsbuch_2022.xlsx
+++ b/src/main/resources/excel/Haushaltsbuch_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larad\Dokumente\Programme\JetBrains\Projekte\HaushaltsbuchFX\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381DB63A-AF30-4915-BE06-5E8324D30912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10166A3C-5466-4A5C-8DF9-42E56C89CE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{6242E93C-EC54-432C-80A4-85FF6AE47B01}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" activeTab="9" xr2:uid="{6242E93C-EC54-432C-80A4-85FF6AE47B01}"/>
   </bookViews>
   <sheets>
     <sheet name="KW1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="49">
   <si>
     <t>datum</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Eis essen</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -261,6 +264,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -271,6 +284,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -281,6 +304,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -311,6 +344,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -321,6 +364,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -351,6 +404,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -401,81 +464,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -891,18 +894,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -915,7 +918,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,6 +990,9 @@
       </c>
       <c r="C4" t="s">
         <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -1126,10 +1132,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1207,10 +1213,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1223,7 +1229,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,6 +1285,9 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
@@ -1336,10 +1345,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1352,7 +1361,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,6 +1400,9 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
@@ -1465,10 +1477,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1481,7 +1493,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,6 +1532,9 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
@@ -1534,6 +1549,9 @@
       <c r="C3" t="s">
         <v>26</v>
       </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
@@ -1565,6 +1583,9 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1602,10 +1623,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1618,7 +1639,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,6 +1712,9 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
@@ -1756,10 +1780,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1772,7 +1796,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A10"/>
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,6 +1852,9 @@
       <c r="C3" t="s">
         <v>35</v>
       </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
@@ -1859,6 +1886,9 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
@@ -1924,6 +1954,9 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
@@ -1938,16 +1971,19 @@
       <c r="C10" t="s">
         <v>38</v>
       </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1960,7 +1996,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,6 +2069,9 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
@@ -2107,10 +2146,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/resources/excel/Haushaltsbuch_2022.xlsx
+++ b/src/main/resources/excel/Haushaltsbuch_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larad\Dokumente\Programme\JetBrains\Projekte\HaushaltsbuchFX\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10166A3C-5466-4A5C-8DF9-42E56C89CE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E35865-32F0-49A3-86CA-4A4C1C7AF357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" activeTab="9" xr2:uid="{6242E93C-EC54-432C-80A4-85FF6AE47B01}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="12" activeTab="25" xr2:uid="{6242E93C-EC54-432C-80A4-85FF6AE47B01}"/>
   </bookViews>
   <sheets>
     <sheet name="KW1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,48 @@
     <sheet name="KW8" sheetId="8" r:id="rId8"/>
     <sheet name="KW9" sheetId="11" r:id="rId9"/>
     <sheet name="KW10" sheetId="12" r:id="rId10"/>
+    <sheet name="KW11" sheetId="13" r:id="rId11"/>
+    <sheet name="KW12" sheetId="14" r:id="rId12"/>
+    <sheet name="KW13" sheetId="15" r:id="rId13"/>
+    <sheet name="KW14" sheetId="16" r:id="rId14"/>
+    <sheet name="KW15" sheetId="17" r:id="rId15"/>
+    <sheet name="KW16" sheetId="19" r:id="rId16"/>
+    <sheet name="KW17" sheetId="18" r:id="rId17"/>
+    <sheet name="KW18" sheetId="20" r:id="rId18"/>
+    <sheet name="KW19" sheetId="21" r:id="rId19"/>
+    <sheet name="KW20" sheetId="22" r:id="rId20"/>
+    <sheet name="KW21" sheetId="23" r:id="rId21"/>
+    <sheet name="KW22" sheetId="24" r:id="rId22"/>
+    <sheet name="KW23" sheetId="25" r:id="rId23"/>
+    <sheet name="KW24" sheetId="26" r:id="rId24"/>
+    <sheet name="KW25" sheetId="27" r:id="rId25"/>
+    <sheet name="KW26" sheetId="28" r:id="rId26"/>
+    <sheet name="KW27" sheetId="29" r:id="rId27"/>
+    <sheet name="KW28" sheetId="30" r:id="rId28"/>
+    <sheet name="KW29" sheetId="31" r:id="rId29"/>
+    <sheet name="KW30" sheetId="32" r:id="rId30"/>
+    <sheet name="KW31" sheetId="33" r:id="rId31"/>
+    <sheet name="KW32" sheetId="34" r:id="rId32"/>
+    <sheet name="KW33" sheetId="35" r:id="rId33"/>
+    <sheet name="KW34" sheetId="36" r:id="rId34"/>
+    <sheet name="KW35" sheetId="37" r:id="rId35"/>
+    <sheet name="KW36" sheetId="38" r:id="rId36"/>
+    <sheet name="KW37" sheetId="39" r:id="rId37"/>
+    <sheet name="KW38" sheetId="40" r:id="rId38"/>
+    <sheet name="KW39" sheetId="41" r:id="rId39"/>
+    <sheet name="KW40" sheetId="42" r:id="rId40"/>
+    <sheet name="KW41" sheetId="43" r:id="rId41"/>
+    <sheet name="KW42" sheetId="44" r:id="rId42"/>
+    <sheet name="KW43" sheetId="45" r:id="rId43"/>
+    <sheet name="KW44" sheetId="46" r:id="rId44"/>
+    <sheet name="KW45" sheetId="47" r:id="rId45"/>
+    <sheet name="KW46" sheetId="48" r:id="rId46"/>
+    <sheet name="KW47" sheetId="49" r:id="rId47"/>
+    <sheet name="KW48" sheetId="50" r:id="rId48"/>
+    <sheet name="KW49" sheetId="51" r:id="rId49"/>
+    <sheet name="KW50" sheetId="52" r:id="rId50"/>
+    <sheet name="KW51" sheetId="53" r:id="rId51"/>
+    <sheet name="KW52" sheetId="54" r:id="rId52"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="107">
   <si>
     <t>datum</t>
   </si>
@@ -191,7 +233,181 @@
     <t>Eis essen</t>
   </si>
   <si>
+    <t>Brille</t>
+  </si>
+  <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Schutzfolie (Handy)</t>
+  </si>
+  <si>
+    <t>Nulltarif (Brille)</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>USB-C</t>
+  </si>
+  <si>
+    <t>Galaxy Watch S4</t>
+  </si>
+  <si>
+    <t>Geburtstagsgeschenk Falco</t>
+  </si>
+  <si>
+    <t>Geschenke</t>
+  </si>
+  <si>
+    <t>Donuts</t>
+  </si>
+  <si>
+    <t>Divers</t>
+  </si>
+  <si>
+    <t>Staubsauger</t>
+  </si>
+  <si>
+    <t>TV-Halterung</t>
+  </si>
+  <si>
+    <t>Pommes</t>
+  </si>
+  <si>
+    <t>Friseur</t>
+  </si>
+  <si>
+    <t>von Robin + Angelika (FHestival)</t>
+  </si>
+  <si>
+    <t>FHestival Karten</t>
+  </si>
+  <si>
+    <t>Oma Elfride</t>
+  </si>
+  <si>
+    <t>C&amp;A</t>
+  </si>
+  <si>
+    <t>Hotel Hamburg</t>
+  </si>
+  <si>
+    <t>Hard Rock Cafe</t>
+  </si>
+  <si>
+    <t>iPad Hülle (Tastatur)</t>
+  </si>
+  <si>
+    <t>ESO DLCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinesisch bestellt </t>
+  </si>
+  <si>
+    <t>30° (d+h)</t>
+  </si>
+  <si>
+    <t>von Angelika</t>
+  </si>
+  <si>
+    <t>Cola Zero</t>
+  </si>
+  <si>
+    <t>Kino Essen</t>
+  </si>
+  <si>
+    <t>Little Mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonstiges </t>
+  </si>
+  <si>
+    <t>Manga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bücher </t>
+  </si>
+  <si>
+    <t>Robin Geschenk</t>
+  </si>
+  <si>
+    <t>Nina Karte - Little Mix</t>
+  </si>
+  <si>
+    <t>Mensa</t>
+  </si>
+  <si>
+    <t>30° + 60° (d)</t>
+  </si>
+  <si>
+    <t>Backwerk</t>
+  </si>
+  <si>
+    <t>Italiener</t>
+  </si>
+  <si>
+    <t>Nina Kino</t>
+  </si>
+  <si>
+    <t>IKEA</t>
+  </si>
+  <si>
+    <t>Essen bestellt</t>
+  </si>
+  <si>
+    <t>Frische Markt</t>
+  </si>
+  <si>
+    <t>Shirley Geschenk</t>
+  </si>
+  <si>
+    <t>Tiger Jump</t>
+  </si>
+  <si>
+    <t>Ccleaner+</t>
+  </si>
+  <si>
+    <t>von Angelika &amp; Falco (Mensa)</t>
+  </si>
+  <si>
+    <t>Unterhosen (30 Tage später bezahlen)</t>
+  </si>
+  <si>
+    <t>Döner</t>
+  </si>
+  <si>
+    <t>Mecces</t>
+  </si>
+  <si>
+    <t>Meccess</t>
+  </si>
+  <si>
+    <t>USB Hub</t>
+  </si>
+  <si>
+    <t>Handy Anzahlung</t>
+  </si>
+  <si>
+    <t>Handy</t>
+  </si>
+  <si>
+    <t>Handy Zubehör</t>
+  </si>
+  <si>
+    <t>Hans im Glück</t>
+  </si>
+  <si>
+    <t>Bestellen</t>
+  </si>
+  <si>
+    <t>Urlaub</t>
+  </si>
+  <si>
+    <t>Freizeit</t>
+  </si>
+  <si>
+    <t>Uni</t>
   </si>
 </sst>
 </file>
@@ -241,7 +457,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="108">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -284,6 +500,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -344,6 +570,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -404,6 +640,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -479,6 +725,816 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -894,18 +1950,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -917,8 +1973,570 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F44F1FA-1C9B-4AEA-A502-721BB6437043}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44629</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44629</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-19.27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44629</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="85" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339A7556-9C7F-4CA4-A3DD-9C125536A189}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44634</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-163.4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44639</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-71.180000000000007</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44639</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="83" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5875C1-C454-481A-814A-E10ACCA0963D}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44643</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-6.11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44643</v>
+      </c>
+      <c r="B3" s="1">
+        <v>814.68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44644</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-53.97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44645</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44645</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-52.32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44645</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-14.99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="81" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CA82DC-3014-4DA1-8BFB-A08D66B1559C}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44650</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-4.79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44650</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-30.41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44650</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44650</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-15.99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-199</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44653</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-76.510000000000005</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44654</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-8.33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44654</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44654</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A5859D-12FD-40EC-8558-6A7E4552E6FF}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,62 +2566,943 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>44629</v>
+      <c r="A2" s="2">
+        <v>44655</v>
       </c>
       <c r="B2" s="1">
-        <v>-5</v>
+        <v>-51.49</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>44629</v>
+      <c r="A3" s="2">
+        <v>44655</v>
       </c>
       <c r="B3" s="1">
-        <v>-19.27</v>
+        <v>-42.5</v>
       </c>
       <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44659</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44660</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44660</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-73.47</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>44629</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
+      <c r="E6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E08C402-609C-4267-B099-5BCA0398CAF1}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44663</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44663</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44664</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-4.99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44664</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-32.25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44665</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44668</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F91D78-0754-4822-ACC8-256E83FBFC95}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44670</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-22.9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44671</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-40.97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44672</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44673</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44674</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-54.95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44675</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44675</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-16.489999999999998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44675</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="73" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4896705F-B102-489E-9913-E8C289D6502E}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44676</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-64.08</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44676</v>
+      </c>
+      <c r="B3" s="1">
+        <v>519.02</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44679</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-60.51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462DF883-F677-4528-A17E-E05DDB2123AF}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44684</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1.3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44684</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44684</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>40668</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44688</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44688</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-7.99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44688</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-20.97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44688</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-69.86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44688</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4.99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A2E906-A3AC-45FF-9E9A-C79F9F78FBC1}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44690</v>
+      </c>
+      <c r="B2" s="1">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44692</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44693</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44694</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-2.6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44694</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-61.51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44696</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-11.7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44696</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1132,10 +3631,1143 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7150735-CBB7-46E4-9B2F-C7652E994371}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44697</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-82.89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44700</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44700</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44701</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-78.25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA74656-27F5-4489-9942-BFF03D0D4196}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-5.3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-9.94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44707</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44708</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44708</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-66.930000000000007</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44708</v>
+      </c>
+      <c r="B7" s="1">
+        <v>488.57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44709</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44710</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-17.45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44710</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-73.06</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0820A35-9343-4702-B816-998B618CCBA9}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44711</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-11.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44711</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-20.9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44713</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-32.25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44714</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44715</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-7.3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44715</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44715</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-21.68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430AC18B-7E7D-40A4-AAF1-EC8C98A316D1}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44718</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-22.99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44720</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-15.8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44721</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44722</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-6.68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44723</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-76.86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8BA182-71FD-4FE6-A191-B65EB371BB30}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44727</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-22.96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44728</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44729</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-8.2100000000000009</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44729</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-64.3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D1E07D-F600-448F-9752-39A03E5B7336}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44732</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-11.3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44732</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-22.87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44734</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-6.6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44735</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44736</v>
+      </c>
+      <c r="B6" s="1">
+        <v>539.32000000000005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44736</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-43.24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44736</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-30.59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44737</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44737</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-32.64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44738</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E66903-06D8-423F-BF85-5A337520138C}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364237B9-C3DD-4077-829A-76FAAA1B80A1}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0E8753-B7F0-457E-8F08-F9E4FA4C0FDC}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A6A0C4-737E-4DC2-81A4-344F76C04B74}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1213,10 +4845,480 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61B9D8D-53D0-43FE-A89E-BDD29175FE8D}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02E6EA1-91C1-4DEB-95D2-1BBF79F9038B}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55C3481-E51D-447D-901C-1D214B40B51B}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F38A7C-B7C2-4152-ACFB-7753361290C5}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C20172-BD9C-46EC-9839-D26F10906404}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C3FE54-82CC-4FBD-B697-5EF795A08C63}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E26779C-FCDA-45E7-9D1D-18582A3D0F2B}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA8115-A443-45E8-859B-7E5CAAFD8770}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B061F669-D974-4799-B3DB-F5FA662DCA4C}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D0FEED-E601-4081-AD9D-FFA1079EFA18}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1229,7 +5331,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +5388,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1345,10 +5447,480 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C758505-4FF6-47E4-B75B-3FD4E598141E}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18661A81-7332-4261-A6D4-936F248CF9CF}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031228CB-48E8-42EA-925D-FE9F1151108A}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B260BD-662A-4FB7-A4F6-68642EB2C2E4}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBDE452-B631-44A1-8B19-3575C3F7FBEA}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B1385D-A28D-4FED-B1AB-6DF8DDA32F9E}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92B927D-FB31-4424-A697-148824FCDE64}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A27A53-C41C-4B3C-97C6-07922DCEDA50}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592BAAAA-1696-4090-BC37-6444F943D6AB}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10552FF0-BE04-495D-89E0-B63E69085450}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1401,7 +5973,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1477,10 +6049,151 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C300619C-7574-4BE4-A0F1-B8807D2E41B3}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6BE552-CC82-4F8A-B700-61F9746F2FD7}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B6AF7F-0CA5-4FB5-9A55-5E469A7E4538}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1533,7 +6246,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1550,7 +6263,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1584,7 +6297,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1623,10 +6336,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1639,7 +6352,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,7 +6426,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1772,18 +6485,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B7">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1796,7 +6509,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,7 +6566,7 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1887,7 +6600,7 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1955,7 +6668,7 @@
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -1972,7 +6685,7 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -1980,10 +6693,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1996,7 +6709,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,7 +6783,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -2146,10 +6859,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
